--- a/data/trans_orig/P70B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1430</v>
+        <v>1871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12136</v>
+        <v>12099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01429159636669229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003833997976332014</v>
+        <v>0.005018292317114235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03254269105188846</v>
+        <v>0.0324426415407074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>5578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2170</v>
+        <v>2196</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10979</v>
+        <v>10731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01673038155341656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006508894529012582</v>
+        <v>0.006587408871180056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03293240499720523</v>
+        <v>0.03218797059549563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -783,19 +783,19 @@
         <v>10907</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5773</v>
+        <v>5532</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19077</v>
+        <v>19144</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01544272320136671</v>
+        <v>0.01544272320136672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008173131607636691</v>
+        <v>0.007831594088910335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02700945287332587</v>
+        <v>0.0271041031327573</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>22538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13083</v>
+        <v>13242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34633</v>
+        <v>35062</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06043491967582932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03508341527214354</v>
+        <v>0.03550730714779585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09286825481254853</v>
+        <v>0.09402019857509109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -833,19 +833,19 @@
         <v>29615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20956</v>
+        <v>21538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38618</v>
+        <v>40119</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08883080833844785</v>
+        <v>0.08883080833844786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06285918702701226</v>
+        <v>0.06460331245992243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1158372123641952</v>
+        <v>0.1203404164579991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -854,19 +854,19 @@
         <v>52152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39919</v>
+        <v>39135</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68517</v>
+        <v>67365</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07383801463142575</v>
+        <v>0.07383801463142578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05651726072435954</v>
+        <v>0.05540794149678175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0970078888288296</v>
+        <v>0.09537602695038988</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>209383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188153</v>
+        <v>188032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>230231</v>
+        <v>231163</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5614606193547229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5045340148992169</v>
+        <v>0.5042085065156413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6173641486690495</v>
+        <v>0.6198654223396154</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>270</v>
@@ -904,19 +904,19 @@
         <v>198702</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183084</v>
+        <v>183020</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214624</v>
+        <v>214962</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5960159660659027</v>
+        <v>0.5960159660659028</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5491693129710939</v>
+        <v>0.5489779133849592</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6437772885624203</v>
+        <v>0.6447911229219637</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>461</v>
@@ -925,19 +925,19 @@
         <v>408084</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>380324</v>
+        <v>379529</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>433518</v>
+        <v>432991</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5777710295939068</v>
+        <v>0.5777710295939069</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5384669999501775</v>
+        <v>0.5373424734541838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.613780329678168</v>
+        <v>0.6130349079206723</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>135675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116737</v>
+        <v>114314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157558</v>
+        <v>156081</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3638128646027555</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3130297931845111</v>
+        <v>0.3065340551347597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4224918464061246</v>
+        <v>0.4185323681853934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -975,19 +975,19 @@
         <v>99489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84418</v>
+        <v>86096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115010</v>
+        <v>115978</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2984228440422328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.253216453874097</v>
+        <v>0.2582495882620622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3449795466848979</v>
+        <v>0.3478828459207759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>241</v>
@@ -996,19 +996,19 @@
         <v>235164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210375</v>
+        <v>212939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>262861</v>
+        <v>263446</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3329482325733006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2978520574171725</v>
+        <v>0.3014822264226405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3721613257141191</v>
+        <v>0.3729895871654081</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>8738</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3642</v>
+        <v>3807</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19049</v>
+        <v>18703</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02754853349262815</v>
+        <v>0.02754853349262814</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01148342507662498</v>
+        <v>0.01200408367856156</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06005855817279836</v>
+        <v>0.05896568903406343</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1121,19 +1121,19 @@
         <v>6095</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2526</v>
+        <v>2691</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11007</v>
+        <v>11396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02247813722153256</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009316366234966395</v>
+        <v>0.009924816852614366</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04059496505262615</v>
+        <v>0.04202749813199984</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1142,19 +1142,19 @@
         <v>14833</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8818</v>
+        <v>8078</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25697</v>
+        <v>23874</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02521168813227173</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01498789395531122</v>
+        <v>0.01373067632969703</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04367786901320055</v>
+        <v>0.04057970651725145</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>30840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20152</v>
+        <v>21794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45179</v>
+        <v>45289</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09723373589685817</v>
+        <v>0.09723373589685816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06353515278763769</v>
+        <v>0.06871189508861697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1424414576474785</v>
+        <v>0.1427878031321679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1192,19 +1192,19 @@
         <v>20424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13776</v>
+        <v>13752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29045</v>
+        <v>29433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07532368431606791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05080489445260461</v>
+        <v>0.05071964643392565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1071193064911036</v>
+        <v>0.1085501075518509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1213,19 +1213,19 @@
         <v>51264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38631</v>
+        <v>37375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67791</v>
+        <v>66971</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08713582645462907</v>
+        <v>0.08713582645462906</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06566374008378927</v>
+        <v>0.06352763716239174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1152268745707851</v>
+        <v>0.1138341358587538</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>196718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175963</v>
+        <v>176130</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215583</v>
+        <v>215795</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6202146984564536</v>
+        <v>0.6202146984564537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5547787650279024</v>
+        <v>0.5553037954012997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6796944498555104</v>
+        <v>0.6803599457418069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -1263,19 +1263,19 @@
         <v>164648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150216</v>
+        <v>149533</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178217</v>
+        <v>179337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6072295426912353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5540029503979311</v>
+        <v>0.5514858385892585</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6572732081193708</v>
+        <v>0.6614040719009059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>387</v>
@@ -1284,19 +1284,19 @@
         <v>361366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334951</v>
+        <v>337131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>383920</v>
+        <v>385778</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6142300969813308</v>
+        <v>0.6142300969813309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5693323494422964</v>
+        <v>0.5730376061610215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6525661607317162</v>
+        <v>0.6557251878842427</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>80881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65020</v>
+        <v>65103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97856</v>
+        <v>100706</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2550030321540599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2049949661712784</v>
+        <v>0.205258993236907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3085203510429455</v>
+        <v>0.3175078873030897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -1334,19 +1334,19 @@
         <v>79980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67652</v>
+        <v>66443</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94058</v>
+        <v>93407</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.294968635771164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2495055730588753</v>
+        <v>0.2450464355945816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.34688916434465</v>
+        <v>0.3444880346887451</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>176</v>
@@ -1355,19 +1355,19 @@
         <v>160861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>141143</v>
+        <v>140459</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>184058</v>
+        <v>185458</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2734223884317682</v>
+        <v>0.2734223884317681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2399067549759796</v>
+        <v>0.2387442893863932</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3128514301011128</v>
+        <v>0.3152314494481978</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>6919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2450</v>
+        <v>2863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17689</v>
+        <v>19338</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02595243669604782</v>
+        <v>0.02595243669604781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009189321884004379</v>
+        <v>0.01073751501600177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06634650164694063</v>
+        <v>0.07252862640672419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1480,19 +1480,19 @@
         <v>2939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6973</v>
+        <v>7123</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03629521511470234</v>
+        <v>0.03629521511470235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008754502723023727</v>
+        <v>0.009244279955109555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08612143542122117</v>
+        <v>0.08797571812047743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1501,19 +1501,19 @@
         <v>9858</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4868</v>
+        <v>4664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19623</v>
+        <v>18911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02836157318958052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0140064076404229</v>
+        <v>0.01341982900450603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05645539451094144</v>
+        <v>0.05440738123002316</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>32664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22469</v>
+        <v>22498</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45677</v>
+        <v>44379</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1225117465325526</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08427376807630779</v>
+        <v>0.08438237420876896</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1713174749959354</v>
+        <v>0.1664517141411843</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -1551,19 +1551,19 @@
         <v>12609</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7629</v>
+        <v>7614</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19100</v>
+        <v>19123</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1557456343015285</v>
+        <v>0.1557456343015286</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09423249144011897</v>
+        <v>0.09404214104759484</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2359150256080781</v>
+        <v>0.2362029217781883</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>48</v>
@@ -1572,19 +1572,19 @@
         <v>45274</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>34339</v>
+        <v>33670</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59049</v>
+        <v>60055</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.130252893892125</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09879503935128532</v>
+        <v>0.09686912327743569</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1698842400658056</v>
+        <v>0.1727798905751766</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>177280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159813</v>
+        <v>160232</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192875</v>
+        <v>192600</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.664917834095431</v>
+        <v>0.6649178340954309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5994050112224977</v>
+        <v>0.6009753859695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7234064155458997</v>
+        <v>0.7223781138958307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -1622,19 +1622,19 @@
         <v>49190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41664</v>
+        <v>41298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56435</v>
+        <v>56518</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6075677383535815</v>
+        <v>0.6075677383535816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5146061085209449</v>
+        <v>0.5100879449768453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6970580437171325</v>
+        <v>0.6980846472262401</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -1643,19 +1643,19 @@
         <v>226470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206126</v>
+        <v>206079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>243825</v>
+        <v>245337</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.651559314463019</v>
+        <v>0.6515593144630188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5930286796276295</v>
+        <v>0.5928935336372991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7014890241244557</v>
+        <v>0.7058401708932054</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>49756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35849</v>
+        <v>37300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65160</v>
+        <v>66249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1866179826759687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1344556191523032</v>
+        <v>0.1399010462226073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2443916998662009</v>
+        <v>0.2484762086386061</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1693,19 +1693,19 @@
         <v>16224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10383</v>
+        <v>10984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22397</v>
+        <v>22952</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2003914122301876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1282466601368548</v>
+        <v>0.13566982723981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2766378056456025</v>
+        <v>0.2834853393145517</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -1714,19 +1714,19 @@
         <v>65980</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51211</v>
+        <v>52415</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83137</v>
+        <v>83398</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1898262184552756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.147336187868479</v>
+        <v>0.1507977481998341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2391875325984606</v>
+        <v>0.2399363582519417</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>27475</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17392</v>
+        <v>16819</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42997</v>
+        <v>43849</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04473145870681518</v>
+        <v>0.04473145870681517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02831640772024165</v>
+        <v>0.02738275036847365</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07000330712824801</v>
+        <v>0.07138919729376417</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1839,19 +1839,19 @@
         <v>16428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10189</v>
+        <v>10976</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23651</v>
+        <v>24016</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03471563572740182</v>
+        <v>0.03471563572740181</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02153204022200728</v>
+        <v>0.02319395303069368</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04997873077625126</v>
+        <v>0.0507495627364254</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1860,19 +1860,19 @@
         <v>43903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32855</v>
+        <v>31789</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61868</v>
+        <v>60432</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04037287062939113</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03021333748188702</v>
+        <v>0.02923248102816182</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05689321510596577</v>
+        <v>0.05557271860261903</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>101460</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82034</v>
+        <v>80599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128055</v>
+        <v>126145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1651851366386053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1335592569204267</v>
+        <v>0.1312214719659232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2084848996028291</v>
+        <v>0.2053748371245185</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -1910,19 +1910,19 @@
         <v>77288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63398</v>
+        <v>63655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92718</v>
+        <v>91434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1633222613619314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1339708110689846</v>
+        <v>0.1345150821680416</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1959291087312708</v>
+        <v>0.1932163033644307</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -1931,19 +1931,19 @@
         <v>178747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151010</v>
+        <v>154404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>205550</v>
+        <v>207349</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1643744687596574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1388677843119862</v>
+        <v>0.1419884688977293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1890218255642696</v>
+        <v>0.1906769367067878</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>355243</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>327582</v>
+        <v>325033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>384348</v>
+        <v>382790</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5783669431023013</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5333316320682264</v>
+        <v>0.5291813560144814</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6257518407234344</v>
+        <v>0.6232156569190497</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>373</v>
@@ -1981,19 +1981,19 @@
         <v>277751</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>257495</v>
+        <v>258710</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>296683</v>
+        <v>297017</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5869375997163656</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5441321641725189</v>
+        <v>0.5467004928743471</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.626944025970507</v>
+        <v>0.6276505823587967</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>697</v>
@@ -2002,19 +2002,19 @@
         <v>632994</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>602811</v>
+        <v>597857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>666358</v>
+        <v>665917</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5820966377874547</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5543402127261738</v>
+        <v>0.5497846902893574</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6127782948639567</v>
+        <v>0.6123720617521518</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>130040</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106074</v>
+        <v>107766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153961</v>
+        <v>154973</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2117164615522783</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1726978025742236</v>
+        <v>0.1754531680349887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.250661153606149</v>
+        <v>0.2523092684114364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -2052,19 +2052,19 @@
         <v>101754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85697</v>
+        <v>85649</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119040</v>
+        <v>119833</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2150245031943012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.181092917141589</v>
+        <v>0.1809914475772561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2515529393860097</v>
+        <v>0.2532284312959037</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -2073,19 +2073,19 @@
         <v>231794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204914</v>
+        <v>203588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259533</v>
+        <v>262507</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2131560228234968</v>
+        <v>0.2131560228234967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1884376931914118</v>
+        <v>0.1872180217975397</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2386646056973068</v>
+        <v>0.2413997687471858</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>3702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>848</v>
+        <v>892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8519</v>
+        <v>9329</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01209012541338458</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002768211267565511</v>
+        <v>0.002912469803396795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02782366827827797</v>
+        <v>0.03046874606816812</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2198,19 +2198,19 @@
         <v>3502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1168</v>
+        <v>1369</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7701</v>
+        <v>8556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01144232382919443</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0038163150445988</v>
+        <v>0.004473317922984234</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02516449767663462</v>
+        <v>0.02796017447691598</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2219,19 +2219,19 @@
         <v>7203</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3585</v>
+        <v>3450</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13598</v>
+        <v>12967</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01176630058067658</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005856743745847871</v>
+        <v>0.005635274335829323</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0222120082763623</v>
+        <v>0.02118192053507172</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>38525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25796</v>
+        <v>26105</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56808</v>
+        <v>57484</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1258313822352771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08425318602886851</v>
+        <v>0.08526272910056412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1855453730019829</v>
+        <v>0.1877545892403873</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2269,19 +2269,19 @@
         <v>42533</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32245</v>
+        <v>32256</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55246</v>
+        <v>55290</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1389871818584603</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.105369053989985</v>
+        <v>0.1054045257413365</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1805282563344246</v>
+        <v>0.1806712407937668</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2290,19 +2290,19 @@
         <v>81059</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65523</v>
+        <v>65377</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100408</v>
+        <v>100647</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1324077394349019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1070306113117535</v>
+        <v>0.1067918117719947</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1640152417538193</v>
+        <v>0.1644046733441569</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>179070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160066</v>
+        <v>156795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>198698</v>
+        <v>198309</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5848774027344634</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.522807657935133</v>
+        <v>0.5121240696063595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.648985907001857</v>
+        <v>0.6477138799117849</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>271</v>
@@ -2340,19 +2340,19 @@
         <v>191858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176674</v>
+        <v>176979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>206607</v>
+        <v>208057</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6269398350269774</v>
+        <v>0.6269398350269773</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5773239276332299</v>
+        <v>0.5783193612079676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.675136579205753</v>
+        <v>0.6798739223540884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>427</v>
@@ -2361,19 +2361,19 @@
         <v>370928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>345110</v>
+        <v>344311</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>398421</v>
+        <v>396572</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6059036867585184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5637295465549466</v>
+        <v>0.5624244530434288</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6508123908933002</v>
+        <v>0.6477925631084744</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>84870</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>67349</v>
+        <v>66987</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>105882</v>
+        <v>106910</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2772010896168748</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2199742673924328</v>
+        <v>0.2187920923138161</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3458312663275352</v>
+        <v>0.3491874764338588</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>92</v>
@@ -2411,19 +2411,19 @@
         <v>68130</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>56574</v>
+        <v>56612</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>83139</v>
+        <v>82988</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2226306592853679</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1848693251975424</v>
+        <v>0.1849926046292172</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2716758546301062</v>
+        <v>0.2711820038823416</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>153</v>
@@ -2432,19 +2432,19 @@
         <v>153000</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>131103</v>
+        <v>130097</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>178271</v>
+        <v>178031</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2499222732259031</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2141539331870521</v>
+        <v>0.2125112945232356</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2912017364583739</v>
+        <v>0.2908101493475677</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>52163</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36619</v>
+        <v>39193</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>69419</v>
+        <v>71075</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02778922956949722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01950847318045377</v>
+        <v>0.02087935092475623</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03698183608216905</v>
+        <v>0.03786425235068813</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -2557,19 +2557,19 @@
         <v>34541</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26457</v>
+        <v>25580</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46552</v>
+        <v>45383</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02358159849039713</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01806255098497176</v>
+        <v>0.0174639899336533</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03178166897625004</v>
+        <v>0.03098384425948574</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>90</v>
@@ -2578,19 +2578,19 @@
         <v>86704</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>68855</v>
+        <v>69185</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109690</v>
+        <v>109691</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02594501653151017</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02060392550649117</v>
+        <v>0.02070275439357137</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03282320142142147</v>
+        <v>0.03282356082208817</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>226027</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>194981</v>
+        <v>193920</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>259503</v>
+        <v>259651</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1204125121787649</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1038731775118676</v>
+        <v>0.1033077797549381</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1382463978420423</v>
+        <v>0.1383250818598013</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>232</v>
@@ -2628,19 +2628,19 @@
         <v>182469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>160093</v>
+        <v>159133</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>204620</v>
+        <v>205198</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1245745010158416</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1092985314961051</v>
+        <v>0.1086427709362648</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1396973554432888</v>
+        <v>0.1400923833638794</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>418</v>
@@ -2649,19 +2649,19 @@
         <v>408496</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>370670</v>
+        <v>367400</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>453776</v>
+        <v>450634</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1222367201316482</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1109177469390602</v>
+        <v>0.1099393143645196</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1357861454721462</v>
+        <v>0.1348459809413706</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>1117694</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1066785</v>
+        <v>1068210</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1166912</v>
+        <v>1165491</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5954346178854411</v>
+        <v>0.5954346178854413</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5683137691542379</v>
+        <v>0.5690726592311693</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6216549822365902</v>
+        <v>0.6208977384696638</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1199</v>
@@ -2699,19 +2699,19 @@
         <v>882149</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>845791</v>
+        <v>850511</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>910457</v>
+        <v>913219</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.6022581300319895</v>
+        <v>0.6022581300319896</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5774355773602793</v>
+        <v>0.5806582265643114</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6215845840552434</v>
+        <v>0.6234697390982213</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2197</v>
@@ -2720,19 +2720,19 @@
         <v>1999843</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1942244</v>
+        <v>1936498</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2057586</v>
+        <v>2052482</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5984253767777865</v>
+        <v>0.5984253767777866</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5811896170560834</v>
+        <v>0.5794701484564236</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6157042412861664</v>
+        <v>0.6141769192796261</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>481222</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>438474</v>
+        <v>441755</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>523052</v>
+        <v>526596</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2563636403662967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2335906177999605</v>
+        <v>0.2353384148498034</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2786479766218399</v>
+        <v>0.2805363279585776</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>482</v>
@@ -2770,19 +2770,19 @@
         <v>365577</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>335654</v>
+        <v>338129</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>395572</v>
+        <v>396759</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2495857704617717</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2291568175745089</v>
+        <v>0.2308466105106812</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2700638172218688</v>
+        <v>0.2708743946062445</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>870</v>
@@ -2791,19 +2791,19 @@
         <v>846799</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>791945</v>
+        <v>802102</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>894544</v>
+        <v>905566</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.253392886559055</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2369785347450203</v>
+        <v>0.240017808187486</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2676799584511025</v>
+        <v>0.2709780320878579</v>
       </c>
     </row>
     <row r="33">
